--- a/39.xlsx
+++ b/39.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3578127A-8483-48B1-BB05-BA01677FD12C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13215" windowHeight="9555"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="13215" windowHeight="9555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 1 " sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="94">
   <si>
     <t>I</t>
   </si>
@@ -311,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -546,28 +547,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,23 +574,33 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,6 +695,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -729,6 +747,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -904,853 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6">
-        <v>208</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6">
-        <v>208</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6">
-        <v>208</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6">
-        <v>208</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6">
-        <v>208</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6">
-        <v>208</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6">
-        <v>208</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6">
-        <v>208</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="6">
-        <v>208</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6">
-        <v>208</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6">
-        <v>208</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6">
-        <v>209</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6">
-        <v>208</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="6">
-        <v>208</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6">
-        <v>112</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6">
-        <v>209</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="6">
-        <v>209</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="6">
-        <v>106</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="6">
-        <v>204</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="6">
-        <v>106</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="6">
-        <v>106</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="6">
-        <v>106</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="6">
-        <v>204</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="6">
-        <v>106</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="6">
-        <v>106</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="6">
-        <v>204</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="6">
-        <v>204</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" ht="12" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="25"/>
-    </row>
-    <row r="22" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6">
-        <v>204</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="6">
-        <v>103</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="6">
-        <v>204</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="6">
-        <v>204</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="6">
-        <v>204</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="6">
-        <v>106</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="6">
-        <v>204</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="6">
-        <v>204</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" ht="30.95" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="6">
-        <v>204</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="6">
-        <v>204</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" ht="12" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1778,161 +967,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6">
-        <v>802</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K6" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M6" s="6">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -1941,41 +1126,37 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6">
-        <v>802</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="K7" s="6">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="M7" s="6">
+        <v>208</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
@@ -1984,40 +1165,38 @@
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6">
-        <v>802</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6">
-        <v>802</v>
+        <v>209</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I8" s="6">
-        <v>802</v>
+        <v>208</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="6">
+        <v>208</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="6"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
@@ -2026,22 +1205,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G9" s="6">
-        <v>802</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="6">
+        <v>209</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
@@ -2068,206 +1253,192 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="6">
-        <v>205</v>
-      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M14" s="6">
-        <v>205</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="6">
-        <v>112</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="30.95" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <v>106</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="6">
+        <v>106</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="6">
-        <v>205</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="6">
+        <v>106</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M15" s="6">
-        <v>205</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="6">
-        <v>112</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="30.95" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="6">
-        <v>205</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="E16" s="6">
+        <v>106</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="6">
-        <v>205</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="6">
+        <v>106</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M16" s="6">
-        <v>205</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="6">
-        <v>112</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="30.95" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -2277,8 +1448,12 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="6">
+        <v>204</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
@@ -2302,119 +1477,119 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="6">
-        <v>703</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E22" s="6">
-        <v>703</v>
+        <v>204</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G22" s="6">
-        <v>703</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="K22" s="6">
-        <v>702</v>
+        <v>204</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="6">
-        <v>602</v>
+        <v>53</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
@@ -2423,33 +1598,37 @@
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="6">
-        <v>703</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6">
-        <v>703</v>
+        <v>204</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="6">
-        <v>703</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="6">
+        <v>204</v>
+      </c>
       <c r="L23" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M23" s="6">
-        <v>602</v>
+        <v>106</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
@@ -2459,33 +1638,35 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="6">
-        <v>703</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6">
-        <v>703</v>
+        <v>204</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="6">
-        <v>703</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="6">
-        <v>112</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="6">
+        <v>204</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
     </row>
@@ -2494,23 +1675,31 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6">
-        <v>602</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="6">
-        <v>703</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6">
+        <v>204</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="6">
+        <v>204</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="5"/>
@@ -2537,28 +1726,37 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="N21:O21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -2572,22 +1770,13 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -2595,8 +1784,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,211 +1813,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6">
+        <v>802</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="6">
+        <v>802</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6">
-        <v>109</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+        <v>802</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6">
+        <v>802</v>
+      </c>
       <c r="J6" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="K6" s="6">
-        <v>109</v>
+        <v>802</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M6" s="6">
-        <v>109</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="6">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="30.95" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6">
+        <v>802</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6">
+        <v>802</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6">
-        <v>109</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+        <v>802</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <v>802</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K7" s="6">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="6">
-        <v>109</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="6">
-        <v>109</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" ht="30.95" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6">
+        <v>802</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6">
+        <v>213</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6">
-        <v>109</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
+        <v>802</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="6">
+        <v>802</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
@@ -2838,19 +2061,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6">
-        <v>111</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="6">
-        <v>111</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="6">
+        <v>802</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
@@ -2864,18 +2087,10 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6">
-        <v>111</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="6">
-        <v>111</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
@@ -2888,144 +2103,200 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="6">
+        <v>205</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
+      <c r="L14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="6">
+        <v>205</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="6">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="30.95" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="6">
+        <v>205</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
+      <c r="L15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="6">
+        <v>205</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="6">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="30.95" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6">
+        <v>205</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="6">
+        <v>205</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
+      <c r="L16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="6">
+        <v>205</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="6">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="30.95" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -3066,104 +2337,120 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6">
+        <v>703</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6">
+        <v>703</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G22" s="6">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="6">
+        <v>702</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="6">
+        <v>602</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
     </row>
@@ -3171,22 +2458,34 @@
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6">
+        <v>703</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="6">
+        <v>703</v>
+      </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G23" s="6">
-        <v>205</v>
+        <v>703</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="6">
+        <v>602</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
     </row>
@@ -3194,18 +2493,34 @@
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
+        <v>703</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6">
+        <v>703</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="6">
+        <v>703</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="6">
+        <v>112</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
     </row>
@@ -3213,26 +2528,26 @@
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6">
+        <v>602</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="6">
-        <v>203</v>
-      </c>
+      <c r="F25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="6">
+        <v>703</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="6">
-        <v>203</v>
-      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
     </row>
@@ -3246,30 +2561,47 @@
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="6">
-        <v>203</v>
-      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="6">
-        <v>203</v>
-      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -3286,6 +2618,698 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="6">
+        <v>109</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="6">
+        <v>109</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="6">
+        <v>109</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="6">
+        <v>109</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="6">
+        <v>109</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6">
+        <v>111</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="6">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="6">
+        <v>111</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="6">
+        <v>206</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="12" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="10.5" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="6">
+        <v>205</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="6">
+        <v>205</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" ht="30.95" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="6">
+        <v>203</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="6">
+        <v>203</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="12" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="6">
+        <v>203</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="6">
+        <v>203</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C12"/>
@@ -3300,22 +3324,27 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -3324,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,121 +3381,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -3564,83 +3593,83 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -3738,83 +3767,83 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -3913,30 +3942,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C12"/>
@@ -3947,23 +3969,30 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -3972,7 +4001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,103 +4029,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -4194,67 +4223,67 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -4352,67 +4381,67 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -4511,11 +4540,36 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -4532,36 +4586,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -4570,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,103 +4627,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -4792,67 +4821,67 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -4950,67 +4979,67 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -5109,6 +5138,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
@@ -5125,41 +5189,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
